--- a/generated_data/stats.xlsx
+++ b/generated_data/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhnguyen/Documents/Code/uiuc-kidney-failure/generated_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F449A8-A16F-9840-B021-7687E9DC4FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB3E86-FAE4-BB4E-9135-56210520C4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="2480" windowWidth="27620" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Tables Variable</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>Mean: 70.824 (SD: 14.296)</t>
+  </si>
+  <si>
+    <t>49.761 (%)</t>
+  </si>
+  <si>
+    <t>51.999 (%)</t>
+  </si>
+  <si>
+    <t>24.546 (%)</t>
+  </si>
+  <si>
+    <t>45.572 (%)</t>
+  </si>
+  <si>
+    <t>47.148 (%)</t>
+  </si>
+  <si>
+    <t>22.179 (%)</t>
   </si>
 </sst>
 </file>
@@ -470,7 +488,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -544,10 +562,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -555,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -566,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">

--- a/generated_data/stats.xlsx
+++ b/generated_data/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhnguyen/Documents/Code/uiuc-kidney-failure/generated_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB3E86-FAE4-BB4E-9135-56210520C4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E37DB-80E2-C94B-B9FF-08452CB1E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2480" windowWidth="27620" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2440" windowWidth="27620" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Tables Variable</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Age (years)</t>
   </si>
   <si>
-    <t>Mean (SD)</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Proteinuria (g/24 hours)</t>
   </si>
   <si>
-    <t>Median (IQR)</t>
-  </si>
-  <si>
     <t>Medication Use</t>
   </si>
   <si>
@@ -110,6 +104,24 @@
   </si>
   <si>
     <t>22.179 (%)</t>
+  </si>
+  <si>
+    <t>Mean: 2.139 (SD: 1.98)</t>
+  </si>
+  <si>
+    <t>Mean: 45.363 (SD: 23.066)</t>
+  </si>
+  <si>
+    <t>Mean: 45.081 (SD: 24.122)</t>
+  </si>
+  <si>
+    <t>Mean: 2.242 (SD: 2.286)</t>
+  </si>
+  <si>
+    <t>Median 0.775 (IQR 2.281)</t>
+  </si>
+  <si>
+    <t>Median 0.77 (IQR 2.232)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -504,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -535,113 +547,113 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/generated_data/stats.xlsx
+++ b/generated_data/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhnguyen/Documents/Code/uiuc-kidney-failure/generated_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E37DB-80E2-C94B-B9FF-08452CB1E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41DD0DB-C19E-4F44-9583-3A25D46BC759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2440" windowWidth="27620" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8960" yWindow="980" windowWidth="21080" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Tables Variable</t>
   </si>
@@ -43,9 +43,6 @@
     <t>CKD Stage 3-5, n (%)</t>
   </si>
   <si>
-    <t>n (%)</t>
-  </si>
-  <si>
     <t>Hypertension, n (%)</t>
   </si>
   <si>
@@ -88,24 +85,6 @@
     <t>Mean: 70.824 (SD: 14.296)</t>
   </si>
   <si>
-    <t>49.761 (%)</t>
-  </si>
-  <si>
-    <t>51.999 (%)</t>
-  </si>
-  <si>
-    <t>24.546 (%)</t>
-  </si>
-  <si>
-    <t>45.572 (%)</t>
-  </si>
-  <si>
-    <t>47.148 (%)</t>
-  </si>
-  <si>
-    <t>22.179 (%)</t>
-  </si>
-  <si>
     <t>Mean: 2.139 (SD: 1.98)</t>
   </si>
   <si>
@@ -122,6 +101,30 @@
   </si>
   <si>
     <t>Median 0.77 (IQR 2.232)</t>
+  </si>
+  <si>
+    <t>8633 (38.651 %)</t>
+  </si>
+  <si>
+    <t>10179 (45.572 %)</t>
+  </si>
+  <si>
+    <t>10531 (47.148 %)</t>
+  </si>
+  <si>
+    <t>4954 (22.179 %)</t>
+  </si>
+  <si>
+    <t>7071 (49.761 %)</t>
+  </si>
+  <si>
+    <t>3488 (24.546 %)</t>
+  </si>
+  <si>
+    <t>7389 (51.999 %)</t>
+  </si>
+  <si>
+    <t>5853 (41.189 %)</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -516,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -547,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -558,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -574,86 +577,86 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
